--- a/data/qna/음악학과.xlsx
+++ b/data/qna/음악학과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,10 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>음악학과</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>음악학과 수능 반영 비율</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>음악학과 정시모집 실기랑 수능 점수 반영 비율이 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU!
 동의대학교 전공 알림단 김도희입니다.
@@ -469,34 +489,64 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>시간표</t>
+          <t>음악학과</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>공통교양 전필 시간표는 이미 나왔어요</t>
+          <t>뉴미디작곡 전공 붙었는데요</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>동의대학교에서 혹시 음악학과에도 지원을 많이 해주고 그러나요? 뉴미디작곡 전공인데 재학생분들한테 이야기를 들어보고 싶어서요ㅠㅠ 궁금한데 아무리 찾아도 자세한 정보가 잘 안 나오니까..</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7~80년대 지어진 건물 아직도 씁니다. 피아노 10대중 8대는 고장나있는 상태입니다. 몇몇 연습실엔 피아노 앞에 앉을 의자마저 없습니다. 다른 학교 붙으셨으면 다른 학교로 가시는걸 추천드립니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>뉴미디작곡 전공 붙었는데요</t>
+          <t>음악학과</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7~80년대 지어진 건물 아직도 씁니다. 피아노 10대중 8대는 고장나있는 상태입니다. 몇몇 연습실엔 피아노 앞에 앉을 의자마저 없습니다. 다른 학교 붙으셨으면 다른 학교로 가시는걸 추천드립니다.</t>
+          <t>동의대 작곡과 실기</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>동의대에서 실기 칠 때 악보 제출하는데 중간에 실수로 인해서 두 마디 정도를 넣었는데 그 부분은 원래 치는 부분이 아니라 넘어갔거든요. 근데 심사하시면서 끝까지 피아노 들으셨고 작곡은 그냥 단순한 주제로 만들어서 했는데 괜찮을까요.. 큰 실수는 없었고 형식에 맞춰서 다 잘 무난하게 했는데 그 곡을 연주한다면 조금 음이 이상할 수도 있는데 괜찮을까요.. ㅠㅠ 너무 가고 싶은 학교라 발표 나오기 전인데 걱정이 돼서.. 그리고 모집 요강 보면 ABA형식이라고 되어 있던데 보통 A’로 적어서 ABA’로 작곡 했는데 괜찮나요..??</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>답변 없음</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>동의대 작곡과 실기</t>
+          <t>음악학과</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t>실기 시험</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>동의대 실기를 봤는데 악보 3부 제출에서 중간에 제가 빼먹고 두 마디를 없애야 하는데 그걸 그대로 넣어서 내버렸는데 어떻게 하나요ㅠㅠㅠ 이 대학 못 갈까요..</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
@@ -505,46 +555,65 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>실기 시험</t>
+          <t>음악학과</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>실기</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>실기 볼 때 혹시 복장 크게 신경써야 하나요ㅠㅠ 편하게 입고 가고 싶은데 아니면 단정하게 슬랙스나 위에 가디건 입는 건 좀 그런가요?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>단정한 옷 입으시는걸 추천드립니다. 교복은 안됩니다!</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>실기</t>
+          <t>음악학과</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>단정한 옷 입으시는걸 추천드립니다. 교복은 안됩니다!</t>
+          <t>작곡 실기</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>작곡 한 다음에 자신이 작곡한 곡을 치기도 하나요?
+그리고 내신이 낮은데 괜찮을까요?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>답변 없음</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>작곡 실기</t>
+          <t>음악학과</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
           <t>실기일정</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>음악학과 정시전형으로 지원했는데 혹시 실기는 언제 치나요 ?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>안녕하십니까 ! 언제나 너의 곁에 WE-DEU 💙
 동의대학교 입학홍보대사 이혜림 입니다 :)
@@ -560,13 +629,23 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>음악학과</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>정시</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>정시 실기는 언제쯤 보는지 알수있을까요 ?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE-DEU ! 동의대학교 입학홍보대사 이헤림 입니다 :)
 음악학과 정시전형 실기일정에 대해 질문해 주셨는데요 !
@@ -582,25 +661,23 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>작곡과 교직이수</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>교직이수 하면 교원자격증이 나오기 때문에 중고교 음악교사를 할 수 있죠 교직이수는 성적 상위 일정 퍼센트가 정해져 있어서 공부 잘해야해요</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>음악학과</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>편입</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>작년에 3명 뽑는데 27명 지원해서 예비9번 까지 합격 했다는데 올해는 10명 뽑는데 20명 지원했다는데 예비 몇번까지 붙을까요..?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>그건 예측하기가 어려울거같아요ㅠㅠ 
 매년마다 치는 학생들의 실력이 다르테니깐요!ㅠㅠ
@@ -608,63 +685,69 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>음악학과</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>편입</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>이번에 편입 시험 봤는데 원래 그렇게 클래식이랑 실용이랑 같이 심사를 하나요? 예비 몇번까지 빠질까요...?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>답변 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>음악학과</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>시창, 자유곡 후에 서브곡이나 질문 많이 하나요?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>교수님들 질문이나 서브곡 시키나요? 질문을 주로 어떤 질물을 하시나요??</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>질문이나 서브곡 작년에는 아무것도 없었어요!</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>편입</t>
+          <t>음악학과</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>노래를 잘해야하나요?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>노래를 꼭 ㅡ 잘해야하나요? 그리고 만약 입학하고 졸업하면 뭘해야하나요..? 돈을 벌수있는 방법이있나요..?</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>시창, 자유곡 후에 서브곡이나 질문 많이 하나요?</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>질문이나 서브곡 작년에는 아무것도 없었어요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>편입</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>노래를 잘해야하나요?</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>안녕하세요</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>제가 다니진 않지만 17년도에 동대전에서 한번 큰 이슈가 됐던 사건이 있었습니다. 음대에서 군기가 장난 아니라 아는 선배든 모르는 선배든 무조건 인사해야해서 제 친구들도 음대지나가다 인사받고 했더라구요 또 강의 시작할때 폰 내고 강의 끝나면 받는데 선배 나가기 전까지 폰 키면 혼났답니다 이것 말고도 많았는데 보면서 진짜 놀랐습니다 ㅜ</t>
         </is>
       </c>
     </row>
